--- a/va_facility_data_2025-02-20/Waycross VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waycross%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Waycross VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waycross%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0d3f476d61584a2f9e9ea627992577c0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b9601cee3a34fa49a7cadb1301dbc2b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R877d75441fa44b16a2a391dbccac2b03"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R495a40a06b3340728c6693a3d8265e69"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R00afc848d804454f88e26107847bee47"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfde0411431d3404582d08e1876424668"/>
   </x:sheets>
 </x:workbook>
 </file>
